--- a/TA-Gastos.xlsx
+++ b/TA-Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noroot\Desktop\SDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C967CE7B-D36A-4CFE-8A60-C294CC636C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5138C-FA0C-4DBA-A94D-9B0C74228AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="936" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="936" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pintura Fachada" sheetId="2" state="hidden" r:id="rId1"/>
@@ -33,6 +33,17 @@
     <sheet name="Arreglo Techo - Tienda Av. Gera" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4397,7 +4408,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4434,33 +4445,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4739,11 +4749,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8DBD5DD3-1C11-4999-93CB-BEF16EDBDB36}" name="main9" displayName="main9" ref="A1:M407" totalsRowShown="0">
-  <autoFilter ref="A1:M407" xr:uid="{9F660B0B-0865-4B41-BA3F-3AE6EF49C1C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8DBD5DD3-1C11-4999-93CB-BEF16EDBDB36}" name="main9" displayName="main9" ref="A1:M406" totalsRowShown="0">
+  <autoFilter ref="A1:M406" xr:uid="{9F660B0B-0865-4B41-BA3F-3AE6EF49C1C6}">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="-"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{92C6C021-D375-4323-8042-54AC52E17C5D}" name="item"/>
-    <tableColumn id="2" xr3:uid="{DD9AE3F8-67FF-4D84-A60E-E5B594485255}" name="fecha" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DD9AE3F8-67FF-4D84-A60E-E5B594485255}" name="fecha" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{ACFBDD92-D348-4F42-BEBC-B5D43C7A5F8F}" name="detalle"/>
     <tableColumn id="4" xr3:uid="{B2A9AAB4-B1EA-4DD2-B81C-C607A65CF485}" name="documento"/>
     <tableColumn id="5" xr3:uid="{9858BBE3-7BC7-43B4-8E6D-D34CE366B29E}" name="Debe"/>
@@ -4753,10 +4774,10 @@
     <tableColumn id="9" xr3:uid="{B444EB19-EF45-469D-B5EA-CB8679F99D16}" name="tipo_gasto_id"/>
     <tableColumn id="10" xr3:uid="{C8CF069F-6DAA-4209-AACD-1182D699080E}" name="tipo_nombre"/>
     <tableColumn id="11" xr3:uid="{20D8D0A6-2DEC-4B84-A726-9F6DE2A8993B}" name="actividad_nombre"/>
-    <tableColumn id="12" xr3:uid="{527764E3-557E-4BB0-923D-F54116FB5758}" name="Columna1" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{527764E3-557E-4BB0-923D-F54116FB5758}" name="Columna1" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(A2,Table9[#All], 9, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9649ACD3-2D47-48ED-A609-BC930DF56449}" name="Columna2" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{9649ACD3-2D47-48ED-A609-BC930DF56449}" name="Columna2" dataDxfId="3">
       <calculatedColumnFormula>DATE(YEAR(B2), MONTH(B2), DAY(B2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4769,7 +4790,7 @@
   <autoFilter ref="A1:M406" xr:uid="{9F660B0B-0865-4B41-BA3F-3AE6EF49C1C6}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{62391FD0-FC00-452B-AD04-EF49EFE66660}" name="item"/>
-    <tableColumn id="2" xr3:uid="{A19EB6E9-10E3-4E27-8232-997F1579853C}" name="fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A19EB6E9-10E3-4E27-8232-997F1579853C}" name="fecha" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{A3767499-D81A-4832-8531-2F613D5CE119}" name="detalle"/>
     <tableColumn id="4" xr3:uid="{69BD6355-3CA4-4374-A0A2-B9C134F35547}" name="documento"/>
     <tableColumn id="5" xr3:uid="{7FDD83B9-96A4-4FF5-AA02-D8920EE4C45C}" name="Debe"/>
@@ -4779,10 +4800,10 @@
     <tableColumn id="9" xr3:uid="{0D5698B9-2791-44BD-9050-C805E34E677E}" name="tipo_gasto_id"/>
     <tableColumn id="10" xr3:uid="{D8B42FAF-E156-4343-B49B-56D0B0C73EA3}" name="tipo_nombre"/>
     <tableColumn id="11" xr3:uid="{2830603C-77CA-4404-9052-9A8A8A5F1014}" name="actividad_nombre"/>
-    <tableColumn id="12" xr3:uid="{7E153AF7-4B1B-4787-8632-231DD4EA143D}" name="Columna1" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{7E153AF7-4B1B-4787-8632-231DD4EA143D}" name="Columna1" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(VLOOKUP(A2,Table9[#All], 9, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C3BD9EFD-60DE-4FFD-AD1A-7423D332778C}" name="Columna2" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{C3BD9EFD-60DE-4FFD-AD1A-7423D332778C}" name="Columna2" dataDxfId="0">
       <calculatedColumnFormula>DATE(YEAR(B2), MONTH(B2), DAY(B2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5118,7 +5139,7 @@
       <selection activeCell="A2" sqref="A2:A185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
@@ -10505,7 +10526,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -10521,7 +10542,7 @@
       </c>
       <c r="B2" t="str">
         <f>TEXT(A2, "yyyy-mm-dd")</f>
-        <v>27/10/2023</v>
+        <v>2023-10-27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12558,7 +12579,7 @@
       <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -16784,7 +16805,7 @@
       <selection activeCell="H11" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17088,7 +17109,7 @@
       <selection activeCell="H9" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17340,7 +17361,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17561,7 +17582,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17943,7 +17964,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18221,7 +18242,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18369,7 +18390,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18621,7 +18642,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -18928,7 +18949,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -19323,7 +19344,7 @@
       <selection activeCell="A2" sqref="A2:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -19979,7 +20000,7 @@
       <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20258,7 +20279,7 @@
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20595,7 +20616,7 @@
       <selection activeCell="I2" sqref="I2:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -21944,13 +21965,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C1F23D-1F09-4B31-832D-E46746FB4D53}">
-  <dimension ref="A1:M407"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="D392" sqref="D392"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
@@ -22005,7 +22026,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -22045,7 +22066,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -22085,7 +22106,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -22125,7 +22146,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -22165,7 +22186,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -22205,7 +22226,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -22245,7 +22266,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -22285,7 +22306,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -22325,7 +22346,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -22365,7 +22386,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -22405,7 +22426,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -22445,7 +22466,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -22485,7 +22506,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -22525,7 +22546,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -22565,7 +22586,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -22605,7 +22626,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -22645,7 +22666,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -22685,7 +22706,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -22725,7 +22746,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -22765,7 +22786,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -22805,7 +22826,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -22845,7 +22866,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -22885,7 +22906,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -22928,7 +22949,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -22968,7 +22989,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -23008,7 +23029,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -23048,7 +23069,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -23088,7 +23109,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -23128,7 +23149,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -23168,7 +23189,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -23248,7 +23269,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -23288,7 +23309,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -23328,7 +23349,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -23368,7 +23389,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -23408,7 +23429,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -23448,7 +23469,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -23488,7 +23509,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -23528,7 +23549,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -23568,7 +23589,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -23608,7 +23629,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -23648,7 +23669,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -23688,7 +23709,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -23728,7 +23749,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -23768,7 +23789,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -23808,7 +23829,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -23848,7 +23869,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -23888,7 +23909,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -23928,7 +23949,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -23968,7 +23989,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -24048,7 +24069,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -24088,7 +24109,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -24128,7 +24149,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -24168,7 +24189,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -24208,7 +24229,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -24248,7 +24269,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -24288,7 +24309,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -24328,7 +24349,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -24368,7 +24389,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -24408,7 +24429,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -24488,7 +24509,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>239</v>
       </c>
@@ -24568,7 +24589,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>245</v>
       </c>
@@ -24608,7 +24629,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>251</v>
       </c>
@@ -24648,7 +24669,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>253</v>
       </c>
@@ -24688,7 +24709,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -24728,7 +24749,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -24768,7 +24789,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>267</v>
       </c>
@@ -24848,7 +24869,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>272</v>
       </c>
@@ -24928,7 +24949,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>277</v>
       </c>
@@ -25048,7 +25069,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>283</v>
       </c>
@@ -25088,7 +25109,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>288</v>
       </c>
@@ -25128,7 +25149,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -25168,7 +25189,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>295</v>
       </c>
@@ -25208,7 +25229,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>297</v>
       </c>
@@ -25248,7 +25269,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>299</v>
       </c>
@@ -25288,7 +25309,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -25328,7 +25349,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -25368,7 +25389,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -25408,7 +25429,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -25448,7 +25469,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>310</v>
       </c>
@@ -25488,7 +25509,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>312</v>
       </c>
@@ -25528,7 +25549,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>313</v>
       </c>
@@ -25568,7 +25589,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>317</v>
       </c>
@@ -25608,7 +25629,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>318</v>
       </c>
@@ -25648,7 +25669,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>320</v>
       </c>
@@ -25688,7 +25709,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>321</v>
       </c>
@@ -25728,7 +25749,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>325</v>
       </c>
@@ -25768,7 +25789,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>328</v>
       </c>
@@ -25808,7 +25829,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>331</v>
       </c>
@@ -25848,7 +25869,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>335</v>
       </c>
@@ -25888,7 +25909,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>339</v>
       </c>
@@ -25928,7 +25949,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>344</v>
       </c>
@@ -25968,7 +25989,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>348</v>
       </c>
@@ -26008,7 +26029,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>352</v>
       </c>
@@ -26048,7 +26069,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>355</v>
       </c>
@@ -26088,7 +26109,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>358</v>
       </c>
@@ -26128,7 +26149,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>361</v>
       </c>
@@ -26168,7 +26189,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>366</v>
       </c>
@@ -26208,7 +26229,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>369</v>
       </c>
@@ -26248,7 +26269,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>371</v>
       </c>
@@ -26288,7 +26309,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>375</v>
       </c>
@@ -26328,7 +26349,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>379</v>
       </c>
@@ -26368,7 +26389,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>382</v>
       </c>
@@ -26408,7 +26429,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>385</v>
       </c>
@@ -26448,7 +26469,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>389</v>
       </c>
@@ -26488,7 +26509,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>391</v>
       </c>
@@ -26528,7 +26549,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>393</v>
       </c>
@@ -26568,7 +26589,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>395</v>
       </c>
@@ -26608,7 +26629,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>396</v>
       </c>
@@ -26648,7 +26669,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>398</v>
       </c>
@@ -26688,7 +26709,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>402</v>
       </c>
@@ -26728,7 +26749,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>403</v>
       </c>
@@ -26768,7 +26789,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>404</v>
       </c>
@@ -26808,7 +26829,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>405</v>
       </c>
@@ -26848,7 +26869,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>408</v>
       </c>
@@ -26888,7 +26909,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>409</v>
       </c>
@@ -26928,7 +26949,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -26968,7 +26989,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>411</v>
       </c>
@@ -27008,7 +27029,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>414</v>
       </c>
@@ -27048,7 +27069,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -27088,7 +27109,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>416</v>
       </c>
@@ -27128,7 +27149,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>417</v>
       </c>
@@ -27168,7 +27189,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>420</v>
       </c>
@@ -27208,7 +27229,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>422</v>
       </c>
@@ -27248,7 +27269,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>423</v>
       </c>
@@ -27288,7 +27309,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>424</v>
       </c>
@@ -27328,7 +27349,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>426</v>
       </c>
@@ -27368,7 +27389,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>429</v>
       </c>
@@ -27408,7 +27429,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>432</v>
       </c>
@@ -27448,7 +27469,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>435</v>
       </c>
@@ -27488,7 +27509,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>440</v>
       </c>
@@ -27528,7 +27549,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>443</v>
       </c>
@@ -27568,7 +27589,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>447</v>
       </c>
@@ -27608,7 +27629,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>451</v>
       </c>
@@ -27648,7 +27669,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>455</v>
       </c>
@@ -27688,7 +27709,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>458</v>
       </c>
@@ -27728,7 +27749,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>461</v>
       </c>
@@ -27768,7 +27789,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>464</v>
       </c>
@@ -27808,7 +27829,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>466</v>
       </c>
@@ -27848,7 +27869,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>470</v>
       </c>
@@ -27888,7 +27909,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>473</v>
       </c>
@@ -27928,7 +27949,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>475</v>
       </c>
@@ -27968,7 +27989,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>477</v>
       </c>
@@ -28008,7 +28029,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>480</v>
       </c>
@@ -28048,7 +28069,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>482</v>
       </c>
@@ -28088,7 +28109,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>485</v>
       </c>
@@ -28128,7 +28149,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>489</v>
       </c>
@@ -28168,7 +28189,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>492</v>
       </c>
@@ -28208,7 +28229,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>496</v>
       </c>
@@ -28248,7 +28269,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>499</v>
       </c>
@@ -28288,7 +28309,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>502</v>
       </c>
@@ -28328,7 +28349,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>504</v>
       </c>
@@ -28368,7 +28389,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>506</v>
       </c>
@@ -28408,7 +28429,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>508</v>
       </c>
@@ -28448,7 +28469,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>514</v>
       </c>
@@ -28488,7 +28509,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>519</v>
       </c>
@@ -28528,7 +28549,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>523</v>
       </c>
@@ -28568,7 +28589,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>525</v>
       </c>
@@ -28608,7 +28629,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>527</v>
       </c>
@@ -28648,7 +28669,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>528</v>
       </c>
@@ -28688,7 +28709,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>530</v>
       </c>
@@ -28728,7 +28749,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>532</v>
       </c>
@@ -28768,7 +28789,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>535</v>
       </c>
@@ -28808,7 +28829,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>538</v>
       </c>
@@ -28848,7 +28869,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>542</v>
       </c>
@@ -28888,7 +28909,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>545</v>
       </c>
@@ -28928,7 +28949,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>546</v>
       </c>
@@ -28968,7 +28989,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>547</v>
       </c>
@@ -29008,7 +29029,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>552</v>
       </c>
@@ -29048,7 +29069,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>556</v>
       </c>
@@ -29088,7 +29109,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>559</v>
       </c>
@@ -29128,7 +29149,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>563</v>
       </c>
@@ -29168,7 +29189,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>564</v>
       </c>
@@ -29208,7 +29229,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>565</v>
       </c>
@@ -29248,7 +29269,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>569</v>
       </c>
@@ -29288,7 +29309,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>572</v>
       </c>
@@ -29328,7 +29349,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>577</v>
       </c>
@@ -29368,7 +29389,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>581</v>
       </c>
@@ -29408,7 +29429,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>585</v>
       </c>
@@ -29448,7 +29469,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>588</v>
       </c>
@@ -29488,7 +29509,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>589</v>
       </c>
@@ -29528,7 +29549,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>593</v>
       </c>
@@ -29568,7 +29589,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>594</v>
       </c>
@@ -29608,7 +29629,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>596</v>
       </c>
@@ -29648,7 +29669,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>599</v>
       </c>
@@ -29688,7 +29709,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>603</v>
       </c>
@@ -29728,7 +29749,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>606</v>
       </c>
@@ -29768,7 +29789,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>610</v>
       </c>
@@ -29808,7 +29829,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>613</v>
       </c>
@@ -29848,7 +29869,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>615</v>
       </c>
@@ -29888,7 +29909,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>617</v>
       </c>
@@ -29928,7 +29949,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>619</v>
       </c>
@@ -29968,7 +29989,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>620</v>
       </c>
@@ -30008,7 +30029,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>621</v>
       </c>
@@ -30048,7 +30069,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>625</v>
       </c>
@@ -30088,7 +30109,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>628</v>
       </c>
@@ -30128,7 +30149,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>631</v>
       </c>
@@ -30168,7 +30189,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>632</v>
       </c>
@@ -30208,7 +30229,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>634</v>
       </c>
@@ -30248,7 +30269,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>638</v>
       </c>
@@ -30288,7 +30309,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>642</v>
       </c>
@@ -30328,7 +30349,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>646</v>
       </c>
@@ -30368,7 +30389,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>648</v>
       </c>
@@ -30408,7 +30429,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>651</v>
       </c>
@@ -30448,7 +30469,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>652</v>
       </c>
@@ -30488,7 +30509,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>653</v>
       </c>
@@ -30528,7 +30549,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>658</v>
       </c>
@@ -30568,7 +30589,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>661</v>
       </c>
@@ -30608,7 +30629,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>664</v>
       </c>
@@ -30648,7 +30669,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>670</v>
       </c>
@@ -30688,7 +30709,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>674</v>
       </c>
@@ -30728,7 +30749,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>676</v>
       </c>
@@ -30768,7 +30789,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>677</v>
       </c>
@@ -30808,7 +30829,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>680</v>
       </c>
@@ -30848,7 +30869,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>683</v>
       </c>
@@ -30888,7 +30909,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>685</v>
       </c>
@@ -30928,7 +30949,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>688</v>
       </c>
@@ -30968,7 +30989,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>691</v>
       </c>
@@ -31008,7 +31029,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>692</v>
       </c>
@@ -31048,7 +31069,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>695</v>
       </c>
@@ -31088,7 +31109,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>699</v>
       </c>
@@ -31128,7 +31149,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>703</v>
       </c>
@@ -31168,7 +31189,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>706</v>
       </c>
@@ -31208,7 +31229,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>710</v>
       </c>
@@ -31248,7 +31269,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>713</v>
       </c>
@@ -31288,7 +31309,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>716</v>
       </c>
@@ -31328,7 +31349,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>719</v>
       </c>
@@ -31368,7 +31389,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>721</v>
       </c>
@@ -31408,7 +31429,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>724</v>
       </c>
@@ -31448,7 +31469,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>726</v>
       </c>
@@ -31528,7 +31549,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>731</v>
       </c>
@@ -31568,7 +31589,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>733</v>
       </c>
@@ -31608,7 +31629,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>737</v>
       </c>
@@ -31648,7 +31669,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>739</v>
       </c>
@@ -31688,7 +31709,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>744</v>
       </c>
@@ -31728,7 +31749,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>746</v>
       </c>
@@ -31768,7 +31789,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>750</v>
       </c>
@@ -31808,7 +31829,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>751</v>
       </c>
@@ -31848,7 +31869,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>756</v>
       </c>
@@ -31888,7 +31909,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>758</v>
       </c>
@@ -31928,7 +31949,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>761</v>
       </c>
@@ -31968,7 +31989,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>762</v>
       </c>
@@ -32008,7 +32029,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>767</v>
       </c>
@@ -32048,7 +32069,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>769</v>
       </c>
@@ -32088,7 +32109,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>774</v>
       </c>
@@ -32128,7 +32149,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>776</v>
       </c>
@@ -32168,7 +32189,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>781</v>
       </c>
@@ -32208,7 +32229,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>784</v>
       </c>
@@ -32248,7 +32269,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>787</v>
       </c>
@@ -32408,7 +32429,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>797</v>
       </c>
@@ -32528,7 +32549,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>806</v>
       </c>
@@ -32568,7 +32589,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>811</v>
       </c>
@@ -32608,7 +32629,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>815</v>
       </c>
@@ -32648,7 +32669,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>821</v>
       </c>
@@ -32688,7 +32709,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>825</v>
       </c>
@@ -32728,7 +32749,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>829</v>
       </c>
@@ -32768,7 +32789,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>832</v>
       </c>
@@ -32808,7 +32829,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>837</v>
       </c>
@@ -32848,7 +32869,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>839</v>
       </c>
@@ -32888,7 +32909,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>843</v>
       </c>
@@ -32928,7 +32949,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>847</v>
       </c>
@@ -33008,7 +33029,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>855</v>
       </c>
@@ -33088,7 +33109,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>864</v>
       </c>
@@ -33128,7 +33149,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>868</v>
       </c>
@@ -33168,7 +33189,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>870</v>
       </c>
@@ -33208,7 +33229,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>872</v>
       </c>
@@ -33248,7 +33269,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>873</v>
       </c>
@@ -33288,7 +33309,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>876</v>
       </c>
@@ -33328,7 +33349,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>878</v>
       </c>
@@ -33368,7 +33389,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>880</v>
       </c>
@@ -33408,7 +33429,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>883</v>
       </c>
@@ -33448,7 +33469,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>885</v>
       </c>
@@ -33488,7 +33509,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>888</v>
       </c>
@@ -33528,7 +33549,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>891</v>
       </c>
@@ -33568,7 +33589,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>895</v>
       </c>
@@ -33608,7 +33629,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>898</v>
       </c>
@@ -33648,7 +33669,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>900</v>
       </c>
@@ -33688,7 +33709,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>902</v>
       </c>
@@ -33728,7 +33749,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>903</v>
       </c>
@@ -33768,7 +33789,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>907</v>
       </c>
@@ -33808,7 +33829,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>909</v>
       </c>
@@ -33848,7 +33869,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>912</v>
       </c>
@@ -33888,7 +33909,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>914</v>
       </c>
@@ -33928,7 +33949,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>916</v>
       </c>
@@ -33968,7 +33989,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>917</v>
       </c>
@@ -34008,7 +34029,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>918</v>
       </c>
@@ -34048,7 +34069,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>921</v>
       </c>
@@ -34088,7 +34109,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>922</v>
       </c>
@@ -34128,7 +34149,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>924</v>
       </c>
@@ -34168,7 +34189,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>926</v>
       </c>
@@ -34208,7 +34229,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>930</v>
       </c>
@@ -34248,7 +34269,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>931</v>
       </c>
@@ -34288,7 +34309,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>934</v>
       </c>
@@ -34328,7 +34349,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>936</v>
       </c>
@@ -34368,7 +34389,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>938</v>
       </c>
@@ -34408,7 +34429,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>939</v>
       </c>
@@ -34448,7 +34469,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>940</v>
       </c>
@@ -34488,7 +34509,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>942</v>
       </c>
@@ -34528,7 +34549,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>943</v>
       </c>
@@ -34568,7 +34589,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>945</v>
       </c>
@@ -34608,7 +34629,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>946</v>
       </c>
@@ -34648,7 +34669,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>950</v>
       </c>
@@ -34688,7 +34709,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>951</v>
       </c>
@@ -34728,7 +34749,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>953</v>
       </c>
@@ -34768,7 +34789,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>956</v>
       </c>
@@ -34808,7 +34829,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>959</v>
       </c>
@@ -34848,7 +34869,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>961</v>
       </c>
@@ -34888,7 +34909,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>962</v>
       </c>
@@ -34928,7 +34949,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>963</v>
       </c>
@@ -34968,7 +34989,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>965</v>
       </c>
@@ -35008,7 +35029,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>967</v>
       </c>
@@ -35048,7 +35069,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>969</v>
       </c>
@@ -35088,7 +35109,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>970</v>
       </c>
@@ -35128,7 +35149,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>971</v>
       </c>
@@ -35168,7 +35189,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>973</v>
       </c>
@@ -35208,7 +35229,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>975</v>
       </c>
@@ -35248,7 +35269,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>976</v>
       </c>
@@ -35288,7 +35309,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>977</v>
       </c>
@@ -35328,7 +35349,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>979</v>
       </c>
@@ -35368,7 +35389,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>980</v>
       </c>
@@ -35408,7 +35429,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>985</v>
       </c>
@@ -35448,7 +35469,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>988</v>
       </c>
@@ -35488,7 +35509,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>990</v>
       </c>
@@ -35528,7 +35549,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>994</v>
       </c>
@@ -35568,7 +35589,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>999</v>
       </c>
@@ -35608,7 +35629,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1003</v>
       </c>
@@ -35648,7 +35669,7 @@
         <v>45415</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1008</v>
       </c>
@@ -35688,7 +35709,7 @@
         <v>45415</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1012</v>
       </c>
@@ -35728,7 +35749,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1017</v>
       </c>
@@ -35768,7 +35789,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1022</v>
       </c>
@@ -35808,7 +35829,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1027</v>
       </c>
@@ -35848,7 +35869,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1033</v>
       </c>
@@ -35888,7 +35909,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1039</v>
       </c>
@@ -35928,7 +35949,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1044</v>
       </c>
@@ -35968,7 +35989,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1050</v>
       </c>
@@ -36008,7 +36029,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1055</v>
       </c>
@@ -36048,7 +36069,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1060</v>
       </c>
@@ -36088,7 +36109,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1066</v>
       </c>
@@ -36128,7 +36149,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1070</v>
       </c>
@@ -36168,7 +36189,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1074</v>
       </c>
@@ -36208,7 +36229,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1078</v>
       </c>
@@ -36248,7 +36269,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1082</v>
       </c>
@@ -36288,7 +36309,7 @@
         <v>45638</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1086</v>
       </c>
@@ -36368,7 +36389,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1094</v>
       </c>
@@ -36408,7 +36429,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1099</v>
       </c>
@@ -36448,7 +36469,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1103</v>
       </c>
@@ -36488,7 +36509,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1107</v>
       </c>
@@ -36568,7 +36589,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1113</v>
       </c>
@@ -36608,7 +36629,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1118</v>
       </c>
@@ -36648,7 +36669,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1122</v>
       </c>
@@ -36688,7 +36709,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1126</v>
       </c>
@@ -36728,7 +36749,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1131</v>
       </c>
@@ -36768,7 +36789,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1134</v>
       </c>
@@ -36808,7 +36829,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1139</v>
       </c>
@@ -36888,7 +36909,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1147</v>
       </c>
@@ -36928,7 +36949,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1151</v>
       </c>
@@ -37048,7 +37069,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1163</v>
       </c>
@@ -37088,7 +37109,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1167</v>
       </c>
@@ -37128,7 +37149,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1171</v>
       </c>
@@ -37168,7 +37189,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1175</v>
       </c>
@@ -37208,7 +37229,7 @@
         <v>45415</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1179</v>
       </c>
@@ -37248,7 +37269,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1183</v>
       </c>
@@ -37288,7 +37309,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1187</v>
       </c>
@@ -37328,7 +37349,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1191</v>
       </c>
@@ -37368,7 +37389,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1194</v>
       </c>
@@ -37408,7 +37429,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1198</v>
       </c>
@@ -37444,11 +37465,11 @@
         <v>9</v>
       </c>
       <c r="M387" s="1">
-        <f t="shared" ref="M387:M407" si="6">DATE(YEAR(B387), MONTH(B387), DAY(B387))</f>
+        <f t="shared" ref="M387:M406" si="6">DATE(YEAR(B387), MONTH(B387), DAY(B387))</f>
         <v>45548</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1201</v>
       </c>
@@ -37488,7 +37509,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1205</v>
       </c>
@@ -37528,7 +37549,7 @@
         <v>45564</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1209</v>
       </c>
@@ -37568,7 +37589,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1213</v>
       </c>
@@ -37608,7 +37629,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1217</v>
       </c>
@@ -37648,7 +37669,7 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1220</v>
       </c>
@@ -37688,7 +37709,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1224</v>
       </c>
@@ -37728,7 +37749,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1227</v>
       </c>
@@ -37768,7 +37789,7 @@
         <v>45699</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1231</v>
       </c>
@@ -37808,7 +37829,7 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1234</v>
       </c>
@@ -37888,7 +37909,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1241</v>
       </c>
@@ -37928,7 +37949,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1246</v>
       </c>
@@ -37968,7 +37989,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1248</v>
       </c>
@@ -38008,7 +38029,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1252</v>
       </c>
@@ -38048,7 +38069,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1254</v>
       </c>
@@ -38088,7 +38109,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1259</v>
       </c>
@@ -38128,7 +38149,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1261</v>
       </c>
@@ -38168,7 +38189,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1266</v>
       </c>
@@ -38206,16 +38227,6 @@
       <c r="M406" s="1">
         <f t="shared" si="6"/>
         <v>44470</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L407" s="3" t="str">
-        <f>IFERROR(VLOOKUP(A407,Table9[#All], 9, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="M407" s="1">
-        <f>DATE(YEAR(B407), MONTH(B407), DAY(B407))</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -38235,7 +38246,7 @@
       <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
@@ -38325,9 +38336,9 @@
         <f>IFERROR(VLOOKUP(A2,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M2" s="1" t="e">
+      <c r="M2" s="1">
         <f>DATE(YEAR(B2), MONTH(B2), DAY(B2))</f>
-        <v>#VALUE!</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -39408,9 +39419,9 @@
         <f>IFERROR(VLOOKUP(A29,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M29" s="1" t="e">
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -48610,7 +48621,7 @@
       </c>
       <c r="M259" s="1">
         <f t="shared" si="4"/>
-        <v>45385</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -48650,7 +48661,7 @@
       </c>
       <c r="M260" s="1">
         <f t="shared" si="4"/>
-        <v>45385</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -48690,7 +48701,7 @@
       </c>
       <c r="M261" s="1">
         <f t="shared" si="4"/>
-        <v>45385</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -48770,7 +48781,7 @@
       </c>
       <c r="M263" s="1">
         <f t="shared" si="4"/>
-        <v>45385</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -48810,7 +48821,7 @@
       </c>
       <c r="M264" s="1">
         <f t="shared" si="4"/>
-        <v>45385</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -49368,9 +49379,9 @@
         <f>IFERROR(VLOOKUP(A278,Table9[#All], 9, FALSE), "")</f>
         <v>13</v>
       </c>
-      <c r="M278" s="1" t="e">
+      <c r="M278" s="1">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -51728,9 +51739,9 @@
         <f>IFERROR(VLOOKUP(A337,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M337" s="1" t="e">
+      <c r="M337" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -51848,9 +51859,9 @@
         <f>IFERROR(VLOOKUP(A340,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M340" s="1" t="e">
+      <c r="M340" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -51888,9 +51899,9 @@
         <f>IFERROR(VLOOKUP(A341,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M341" s="1" t="e">
+      <c r="M341" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -51930,7 +51941,7 @@
       </c>
       <c r="M342" s="1">
         <f t="shared" si="5"/>
-        <v>45356</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
@@ -51970,7 +51981,7 @@
       </c>
       <c r="M343" s="1">
         <f t="shared" si="5"/>
-        <v>45356</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
@@ -52010,7 +52021,7 @@
       </c>
       <c r="M344" s="1">
         <f t="shared" si="5"/>
-        <v>45478</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -52050,7 +52061,7 @@
       </c>
       <c r="M345" s="1">
         <f t="shared" si="5"/>
-        <v>45570</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -52088,9 +52099,9 @@
         <f>IFERROR(VLOOKUP(A346,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M346" s="1" t="e">
+      <c r="M346" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -52128,9 +52139,9 @@
         <f>IFERROR(VLOOKUP(A347,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M347" s="1" t="e">
+      <c r="M347" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -52170,7 +52181,7 @@
       </c>
       <c r="M348" s="1">
         <f t="shared" si="5"/>
-        <v>45448</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -52210,7 +52221,7 @@
       </c>
       <c r="M349" s="1">
         <f t="shared" si="5"/>
-        <v>45448</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -52248,9 +52259,9 @@
         <f>IFERROR(VLOOKUP(A350,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M350" s="1" t="e">
+      <c r="M350" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -52290,7 +52301,7 @@
       </c>
       <c r="M351" s="1">
         <f t="shared" si="5"/>
-        <v>45448</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -52328,9 +52339,9 @@
         <f>IFERROR(VLOOKUP(A352,Table9[#All], 9, FALSE), "")</f>
         <v>18</v>
       </c>
-      <c r="M352" s="1" t="e">
+      <c r="M352" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -52368,9 +52379,9 @@
         <f>IFERROR(VLOOKUP(A353,Table9[#All], 9, FALSE), "")</f>
         <v>18</v>
       </c>
-      <c r="M353" s="1" t="e">
+      <c r="M353" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -52408,9 +52419,9 @@
         <f>IFERROR(VLOOKUP(A354,Table9[#All], 9, FALSE), "")</f>
         <v>18</v>
       </c>
-      <c r="M354" s="1" t="e">
+      <c r="M354" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -52448,9 +52459,9 @@
         <f>IFERROR(VLOOKUP(A355,Table9[#All], 9, FALSE), "")</f>
         <v>18</v>
       </c>
-      <c r="M355" s="1" t="e">
+      <c r="M355" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -52490,7 +52501,7 @@
       </c>
       <c r="M356" s="1">
         <f t="shared" si="5"/>
-        <v>45455</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -52530,7 +52541,7 @@
       </c>
       <c r="M357" s="1">
         <f t="shared" si="5"/>
-        <v>45577</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -52608,9 +52619,9 @@
         <f>IFERROR(VLOOKUP(A359,Table9[#All], 9, FALSE), "")</f>
         <v>18</v>
       </c>
-      <c r="M359" s="1" t="e">
+      <c r="M359" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -52650,7 +52661,7 @@
       </c>
       <c r="M360" s="1">
         <f t="shared" si="5"/>
-        <v>45577</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -52688,9 +52699,9 @@
         <f>IFERROR(VLOOKUP(A361,Table9[#All], 9, FALSE), "")</f>
         <v>19</v>
       </c>
-      <c r="M361" s="1" t="e">
+      <c r="M361" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -52728,9 +52739,9 @@
         <f>IFERROR(VLOOKUP(A362,Table9[#All], 9, FALSE), "")</f>
         <v>19</v>
       </c>
-      <c r="M362" s="1" t="e">
+      <c r="M362" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -52768,9 +52779,9 @@
         <f>IFERROR(VLOOKUP(A363,Table9[#All], 9, FALSE), "")</f>
         <v>19</v>
       </c>
-      <c r="M363" s="1" t="e">
+      <c r="M363" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -52808,9 +52819,9 @@
         <f>IFERROR(VLOOKUP(A364,Table9[#All], 9, FALSE), "")</f>
         <v>19</v>
       </c>
-      <c r="M364" s="1" t="e">
+      <c r="M364" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -52848,9 +52859,9 @@
         <f>IFERROR(VLOOKUP(A365,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M365" s="1" t="e">
+      <c r="M365" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -52888,9 +52899,9 @@
         <f>IFERROR(VLOOKUP(A366,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M366" s="1" t="e">
+      <c r="M366" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -52928,9 +52939,9 @@
         <f>IFERROR(VLOOKUP(A367,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M367" s="1" t="e">
+      <c r="M367" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -52968,9 +52979,9 @@
         <f>IFERROR(VLOOKUP(A368,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M368" s="1" t="e">
+      <c r="M368" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
@@ -53008,9 +53019,9 @@
         <f>IFERROR(VLOOKUP(A369,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M369" s="1" t="e">
+      <c r="M369" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
@@ -53048,9 +53059,9 @@
         <f>IFERROR(VLOOKUP(A370,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M370" s="1" t="e">
+      <c r="M370" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -53088,9 +53099,9 @@
         <f>IFERROR(VLOOKUP(A371,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M371" s="1" t="e">
+      <c r="M371" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -53128,9 +53139,9 @@
         <f>IFERROR(VLOOKUP(A372,Table9[#All], 9, FALSE), "")</f>
         <v>20</v>
       </c>
-      <c r="M372" s="1" t="e">
+      <c r="M372" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45465</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -53168,9 +53179,9 @@
         <f>IFERROR(VLOOKUP(A373,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M373" s="1" t="e">
+      <c r="M373" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -53208,9 +53219,9 @@
         <f>IFERROR(VLOOKUP(A374,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M374" s="1" t="e">
+      <c r="M374" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -53248,9 +53259,9 @@
         <f>IFERROR(VLOOKUP(A375,Table9[#All], 9, FALSE), "")</f>
         <v/>
       </c>
-      <c r="M375" s="1" t="e">
+      <c r="M375" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -53288,9 +53299,9 @@
         <f>IFERROR(VLOOKUP(A376,Table9[#All], 9, FALSE), "")</f>
         <v>17</v>
       </c>
-      <c r="M376" s="1" t="e">
+      <c r="M376" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -53328,9 +53339,9 @@
         <f>IFERROR(VLOOKUP(A377,Table9[#All], 9, FALSE), "")</f>
         <v>9</v>
       </c>
-      <c r="M377" s="1" t="e">
+      <c r="M377" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -53368,9 +53379,9 @@
         <f>IFERROR(VLOOKUP(A378,Table9[#All], 9, FALSE), "")</f>
         <v>9</v>
       </c>
-      <c r="M378" s="1" t="e">
+      <c r="M378" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -54168,9 +54179,9 @@
         <f>IFERROR(VLOOKUP(A398,Table9[#All], 9, FALSE), "")</f>
         <v>9</v>
       </c>
-      <c r="M398" s="1" t="e">
+      <c r="M398" s="1">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
